--- a/xlsx/加勒比地区_intext.xlsx
+++ b/xlsx/加勒比地区_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
   <si>
     <t>加勒比地区</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Caribbean</t>
   </si>
   <si>
-    <t>政策_政策_美國_加勒比地区</t>
+    <t>政策_政策_美国_加勒比地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
+    <t>巴哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A5%88%E5%B0%94</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BD%91%E9%81%94%E4%BF%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>聖佑達修斯</t>
+    <t>圣佑达修斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%B2%99%E5%B7%B4</t>
   </si>
   <si>
-    <t>荷屬沙巴</t>
+    <t>荷属沙巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BE%85%E6%99%AE</t>
   </si>
   <si>
-    <t>瓜德羅普</t>
+    <t>瓜德罗普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%B2%E8%87%98</t>
   </si>
   <si>
-    <t>蒙哲臘</t>
+    <t>蒙哲腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -173,69 +173,66 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3</t>
   </si>
   <si>
-    <t>聖巴泰勒米</t>
+    <t>圣巴泰勒米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%85%8B%E5%87%B1%E5%8F%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>土克凱可群島</t>
+    <t>土克凯可群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維京群島</t>
+    <t>美属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E5%9C%8B%E5%AE%B6%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>加勒比海國家協會</t>
+    <t>加勒比海国家协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
   </si>
   <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
   </si>
   <si>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -287,9 +284,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙买加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
@@ -323,15 +317,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
   </si>
   <si>
@@ -341,15 +332,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
@@ -365,25 +353,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
   </si>
   <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -491,19 +476,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -617,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -683,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -737,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -809,25 +794,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -845,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -863,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -881,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -917,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -935,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -971,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -2381,7 +2366,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2407,10 +2392,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2436,10 +2421,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2465,10 +2450,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2494,10 +2479,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2552,10 +2537,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2581,10 +2566,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2610,10 +2595,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2639,10 +2624,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2668,10 +2653,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2697,10 +2682,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2726,10 +2711,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2755,10 +2740,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2813,10 +2798,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2842,10 +2827,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2871,10 +2856,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2900,10 +2885,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2929,10 +2914,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2958,10 +2943,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2987,10 +2972,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3016,10 +3001,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3045,10 +3030,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3074,10 +3059,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3103,10 +3088,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3132,10 +3117,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3161,10 +3146,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3219,10 +3204,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3248,10 +3233,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3277,10 +3262,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3306,10 +3291,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -3335,10 +3320,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G69" t="n">
         <v>7</v>
@@ -3364,10 +3349,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3393,10 +3378,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3422,10 +3407,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3451,10 +3436,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3480,10 +3465,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3509,10 +3494,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3538,10 +3523,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3567,10 +3552,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3596,10 +3581,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3625,10 +3610,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3654,10 +3639,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3683,10 +3668,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3712,10 +3697,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3741,10 +3726,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3770,10 +3755,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3799,10 +3784,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>13</v>
@@ -3828,10 +3813,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3857,10 +3842,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3886,10 +3871,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3915,10 +3900,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3944,10 +3929,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3973,10 +3958,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4002,10 +3987,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4031,10 +4016,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4060,10 +4045,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4089,10 +4074,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4118,10 +4103,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4147,10 +4132,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4176,10 +4161,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4205,10 +4190,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4234,10 +4219,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4263,10 +4248,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4292,10 +4277,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4321,10 +4306,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4350,10 +4335,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4379,10 +4364,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4408,10 +4393,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4437,10 +4422,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>19</v>
@@ -4466,10 +4451,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4495,10 +4480,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4524,10 +4509,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -4553,10 +4538,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4582,10 +4567,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4611,10 +4596,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4640,10 +4625,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4669,10 +4654,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4698,10 +4683,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4727,10 +4712,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4756,10 +4741,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4785,10 +4770,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4814,10 +4799,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4843,10 +4828,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4872,10 +4857,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4901,10 +4886,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4930,10 +4915,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4959,10 +4944,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4988,10 +4973,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5017,10 +5002,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5046,10 +5031,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5075,10 +5060,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5104,10 +5089,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5133,10 +5118,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5162,10 +5147,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5191,10 +5176,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5220,10 +5205,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5249,10 +5234,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5278,10 +5263,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5307,10 +5292,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5336,10 +5321,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5365,10 +5350,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>10</v>
@@ -5394,10 +5379,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5423,10 +5408,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5452,10 +5437,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5481,10 +5466,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5510,10 +5495,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5539,10 +5524,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5568,10 +5553,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5597,10 +5582,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5626,10 +5611,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>8</v>
@@ -5655,10 +5640,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5684,10 +5669,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5713,10 +5698,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5742,10 +5727,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5771,10 +5756,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5800,10 +5785,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5829,10 +5814,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5858,10 +5843,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -5887,10 +5872,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5916,10 +5901,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5945,10 +5930,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5974,10 +5959,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6003,10 +5988,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6032,10 +6017,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6061,10 +6046,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6090,10 +6075,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6119,10 +6104,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6148,10 +6133,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6177,10 +6162,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6206,10 +6191,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6235,10 +6220,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>12</v>
